--- a/Software analyze/Teampathy/Gantt Chart.xlsx
+++ b/Software analyze/Teampathy/Gantt Chart.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Task</t>
   </si>
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>功能分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>初審文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -62,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Database APIs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>類別設計</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,47 +66,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>推播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>會員系統介面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>討論區介面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代辦清單介面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辦公室介面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>團隊動態牆介面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>團隊成員介面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gantt Chart API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WBS Chart API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作分析室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>職位調整頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web APIs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImgurAPI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XML系統</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Domains Classes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>連接後端API</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>推播</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>會員系統介面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>討論區介面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代辦清單介面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>時程分析介面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辦公室介面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>團隊動態牆介面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>團隊成員介面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gantt Chart API</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WBS Chart API</t>
+    <t>資料庫建置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總審呈現設計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總審呈現講稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總審呈現練習</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>後端API設計</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,9 +154,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -164,7 +193,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -305,7 +334,7 @@
       <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -318,10 +347,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.9072694056516716E-2"/>
-          <c:y val="6.3644020287704592E-2"/>
-          <c:w val="0.81195378907656413"/>
-          <c:h val="0.72007372410189252"/>
+          <c:x val="9.4972391008571522E-2"/>
+          <c:y val="9.2796317606444176E-2"/>
+          <c:w val="0.85226845575852583"/>
+          <c:h val="0.83361416416733869"/>
         </c:manualLayout>
       </c:layout>
       <c:bar3DChart>
@@ -414,84 +443,108 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$A$2:$A$23</c:f>
+              <c:f>工作表1!$A$2:$A$31</c:f>
               <c:strCache>
-                <c:ptCount val="22"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>問卷</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>功能分析</c:v>
+                  <c:v>初審文件</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>初審文件</c:v>
+                  <c:v>介面設計</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>ER Diagram</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>類別設計</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>會員系統介面</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>討論區介面</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>團隊動態牆介面</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>團隊成員介面</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>後端API設計</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Gantt Chart API</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>WBS Chart API</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>代辦清單介面</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Schema </c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>XML系統</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>資料庫建置</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>辦公室介面</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Domains Classes</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>工作分析室</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>推播</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>連接後端API</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>職位調整頁面</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>ImgurAPI</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Web APIs</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>總審文件</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="25">
+                  <c:v>ImgurAPI</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>總審簡報</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>介面設計</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Schema </c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ER Diagram</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>類別設計</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>會員系統介面</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>討論區介面</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>團隊動態牆介面</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>團隊成員介面</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>代辦清單介面</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>辦公室介面</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>時程分析介面</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>推播</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Database APIs</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>連接後端API</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Gantt Chart API</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>WBS Chart API</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>ImgurAPI</c:v>
+                <c:pt idx="27">
+                  <c:v>總審呈現設計</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>總審呈現講稿</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>總審呈現練習</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$B$2:$B$23</c:f>
+              <c:f>工作表1!$B$2:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>42849</c:v>
                 </c:pt>
@@ -502,61 +555,85 @@
                   <c:v>42849</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>42849</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42856</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42856</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42858</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42861</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42863</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42865</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42865</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42865</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42866</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42870</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42870</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42870</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42871</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42872</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42873</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42873</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42875</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42883</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42901</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42906</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>42917</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>42917</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42849</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42870</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42849</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42856</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42856</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42868</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42861</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42863</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42866</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42869</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>42871</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42873</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42870</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>42896</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42865</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42865</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>42906</c:v>
+                <c:pt idx="27">
+                  <c:v>42948</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42948</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -676,77 +753,199 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$A$2:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>問卷</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>初審文件</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>介面設計</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ER Diagram</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>類別設計</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>會員系統介面</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>討論區介面</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>團隊動態牆介面</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>團隊成員介面</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>後端API設計</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Gantt Chart API</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>WBS Chart API</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>代辦清單介面</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Schema </c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>XML系統</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>資料庫建置</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>辦公室介面</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Domains Classes</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>工作分析室</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>推播</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>連接後端API</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>職位調整頁面</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>ImgurAPI</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Web APIs</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>總審文件</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>ImgurAPI</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>總審簡報</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>總審呈現設計</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>總審呈現講稿</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>總審呈現練習</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$2:$C$23</c:f>
+              <c:f>工作表1!$C$2:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>50</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="28">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>6</c:v>
+                <c:pt idx="29">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1479,15 +1678,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
+      <xdr:colOff>447673</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1778,10 +1977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1789,9 +1988,10 @@
     <col min="1" max="1" width="30.5703125" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1802,7 +2002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1812,8 +2012,9 @@
       <c r="C2">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1821,169 +2022,169 @@
         <v>42849</v>
       </c>
       <c r="C3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>42849</v>
       </c>
       <c r="C4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>42849</v>
+      </c>
+      <c r="C5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>42856</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1">
+        <v>42856</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1">
+        <v>42858</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1">
+        <v>42861</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1">
+        <v>42863</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1">
+        <v>42865</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1">
+        <v>42865</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1">
+        <v>42865</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1">
-        <v>42917</v>
-      </c>
-      <c r="C5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1">
-        <v>42917</v>
-      </c>
-      <c r="C6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B14" s="1">
+        <v>42866</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1">
-        <v>42849</v>
-      </c>
-      <c r="C7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B15" s="1">
+        <v>42870</v>
+      </c>
+      <c r="C15">
         <v>10</v>
       </c>
-      <c r="B8" s="1">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1">
         <v>42870</v>
       </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>42849</v>
-      </c>
-      <c r="C9">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1">
-        <v>42856</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1">
-        <v>42856</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="1">
-        <v>42868</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="1">
-        <v>42861</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="1">
-        <v>42863</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="1">
-        <v>42866</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C16">
         <v>20</v>
-      </c>
-      <c r="B16" s="1">
-        <v>42869</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1">
-        <v>42871</v>
+        <v>42870</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>42873</v>
+        <v>42871</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -1991,21 +2192,21 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B19" s="1">
-        <v>42870</v>
+        <v>42872</v>
       </c>
       <c r="C19">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1">
-        <v>42896</v>
+        <v>42873</v>
       </c>
       <c r="C20">
         <v>10</v>
@@ -2013,49 +2214,129 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B21" s="1">
-        <v>42865</v>
+        <v>42873</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1">
-        <v>42865</v>
+        <v>42875</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1">
+        <v>42883</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1">
+        <v>42887</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>42887</v>
+      </c>
+      <c r="C25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1">
+        <v>42901</v>
+      </c>
+      <c r="C26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="1">
         <v>42906</v>
       </c>
-      <c r="C23">
+      <c r="C27">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="2">
-        <v>42840</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="1">
+        <v>42917</v>
+      </c>
+      <c r="C28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1">
+        <v>42948</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1">
+        <v>42948</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1">
+        <v>42962</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C31">
+    <sortCondition ref="B2:B31"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
